--- a/PetSusan/script/file/categoryLoai.xlsx
+++ b/PetSusan/script/file/categoryLoai.xlsx
@@ -19,24 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
-    <t>rabbit</t>
+    <t>kjhgfd</t>
   </si>
 </sst>
 </file>
@@ -843,9 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -859,26 +849,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PetSusan/script/file/categoryLoai.xlsx
+++ b/PetSusan/script/file/categoryLoai.xlsx
@@ -19,19 +19,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>kjhgfd</t>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Dragon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +189,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444950"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -508,8 +538,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -831,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +880,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>